--- a/导表工具/Excels/战斗单位表.xlsx
+++ b/导表工具/Excels/战斗单位表.xlsx
@@ -107,7 +107,7 @@
     <t>战士模版</t>
   </si>
   <si>
-    <t>1,10001</t>
+    <t>10001</t>
   </si>
   <si>
     <t>弓箭手</t>
@@ -116,7 +116,7 @@
     <t>弓箭手模版</t>
   </si>
   <si>
-    <t>1,10002</t>
+    <t>10002</t>
   </si>
   <si>
     <t>魔法师</t>
@@ -125,7 +125,7 @@
     <t>魔法师模版</t>
   </si>
   <si>
-    <t>1,10003</t>
+    <t>10003</t>
   </si>
   <si>
     <t>牧师</t>
@@ -134,7 +134,7 @@
     <t>牧师模版</t>
   </si>
   <si>
-    <t>1,10004</t>
+    <t>10004</t>
   </si>
   <si>
     <t>骑士</t>
@@ -143,7 +143,7 @@
     <t>骑士模版</t>
   </si>
   <si>
-    <t>1,10005</t>
+    <t>10005</t>
   </si>
   <si>
     <t>DamageRate</t>
@@ -217,8 +217,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -238,7 +238,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +260,107 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,129 +374,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,12 +390,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -408,181 +402,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,6 +587,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -611,11 +634,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,56 +679,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -698,106 +692,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,40 +794,46 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -856,10 +850,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1190,7 +1184,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1492,9 +1486,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="J7:J11" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1504,7 +1495,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>

--- a/导表工具/Excels/战斗单位表.xlsx
+++ b/导表工具/Excels/战斗单位表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="战斗单位表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>##</t>
   </si>
@@ -107,43 +107,28 @@
     <t>战士模版</t>
   </si>
   <si>
-    <t>10001</t>
-  </si>
-  <si>
     <t>弓箭手</t>
   </si>
   <si>
     <t>弓箭手模版</t>
   </si>
   <si>
-    <t>10002</t>
-  </si>
-  <si>
     <t>魔法师</t>
   </si>
   <si>
     <t>魔法师模版</t>
   </si>
   <si>
-    <t>10003</t>
-  </si>
-  <si>
     <t>牧师</t>
   </si>
   <si>
     <t>牧师模版</t>
   </si>
   <si>
-    <t>10004</t>
-  </si>
-  <si>
     <t>骑士</t>
   </si>
   <si>
     <t>骑士模版</t>
-  </si>
-  <si>
-    <t>10005</t>
   </si>
   <si>
     <t>DamageRate</t>
@@ -217,10 +202,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -238,21 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +231,75 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,19 +313,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,6 +328,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -305,40 +352,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,36 +365,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -402,37 +387,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,25 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,109 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,33 +588,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,6 +633,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -663,177 +672,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -859,7 +844,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1363,8 +1348,8 @@
       <c r="I7" s="3">
         <v>4</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>30</v>
+      <c r="J7" s="7">
+        <v>10001</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -1372,10 +1357,10 @@
         <v>10002</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E8" s="3">
         <v>9</v>
@@ -1392,8 +1377,8 @@
       <c r="I8" s="3">
         <v>3</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>33</v>
+      <c r="J8" s="7">
+        <v>10002</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -1401,10 +1386,10 @@
         <v>10003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3">
         <v>8</v>
@@ -1421,8 +1406,8 @@
       <c r="I9" s="3">
         <v>3</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>36</v>
+      <c r="J9" s="7">
+        <v>10003</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -1430,10 +1415,10 @@
         <v>10004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
@@ -1450,8 +1435,8 @@
       <c r="I10" s="3">
         <v>3</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>39</v>
+      <c r="J10" s="7">
+        <v>10004</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -1459,10 +1444,10 @@
         <v>10005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -1479,8 +1464,8 @@
       <c r="I11" s="3">
         <v>6</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>42</v>
+      <c r="J11" s="7">
+        <v>10005</v>
       </c>
     </row>
   </sheetData>
@@ -1494,8 +1479,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1526,13 +1511,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -1546,7 +1531,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -1566,24 +1551,24 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1594,10 +1579,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3">
         <v>1.5</v>
@@ -1614,10 +1599,10 @@
         <v>10001</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>1.5</v>
@@ -1634,10 +1619,10 @@
         <v>10002</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>1.3</v>
@@ -1654,10 +1639,10 @@
         <v>10003</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>1.8</v>
@@ -1674,10 +1659,10 @@
         <v>10004</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>1.2</v>
@@ -1694,10 +1679,10 @@
         <v>10005</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E11">
         <v>2</v>

--- a/导表工具/Excels/战斗单位表.xlsx
+++ b/导表工具/Excels/战斗单位表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="战斗单位表" sheetId="1" r:id="rId1"/>
@@ -202,10 +202,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -219,6 +219,13 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,16 +252,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,6 +298,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -274,97 +359,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,31 +387,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,13 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,31 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,73 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,6 +589,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +644,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -646,179 +672,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" s="1" customFormat="1" spans="2:10">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" s="1" customFormat="1" spans="2:10">
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" s="1" customFormat="1" spans="2:10">
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" s="1" customFormat="1" spans="2:10">
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1479,8 +1479,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="$A2:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" s="1" customFormat="1" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" s="1" customFormat="1" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" s="1" customFormat="1" spans="2:7">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" s="1" customFormat="1" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1570,9 +1570,6 @@
       <c r="D5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="3">

--- a/导表工具/Excels/战斗单位表.xlsx
+++ b/导表工具/Excels/战斗单位表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="战斗单位表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>##</t>
   </si>
@@ -129,6 +129,24 @@
   </si>
   <si>
     <t>骑士模版</t>
+  </si>
+  <si>
+    <t>剑客</t>
+  </si>
+  <si>
+    <t>剑修模版</t>
+  </si>
+  <si>
+    <t>和尚</t>
+  </si>
+  <si>
+    <t>体修模版</t>
+  </si>
+  <si>
+    <t>书生</t>
+  </si>
+  <si>
+    <t>灵修模版</t>
   </si>
   <si>
     <t>DamageRate</t>
@@ -203,9 +221,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -224,20 +242,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,7 +256,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,34 +340,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,65 +377,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -381,13 +399,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,169 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,6 +611,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -604,11 +646,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,180 +690,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1166,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1468,6 +1486,84 @@
         <v>10005</v>
       </c>
     </row>
+    <row r="12" spans="2:9">
+      <c r="B12">
+        <v>20001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13">
+        <v>20002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14">
+        <v>20003</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1479,7 +1575,7 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="$A2:$XFD5"/>
     </sheetView>
   </sheetViews>
@@ -1511,13 +1607,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:7">
@@ -1531,7 +1627,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -1551,24 +1647,24 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1576,10 +1672,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3">
         <v>1.5</v>
@@ -1596,10 +1692,10 @@
         <v>10001</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>1.5</v>
@@ -1616,10 +1712,10 @@
         <v>10002</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>1.3</v>
@@ -1636,10 +1732,10 @@
         <v>10003</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>1.8</v>
@@ -1656,10 +1752,10 @@
         <v>10004</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>1.2</v>
@@ -1676,10 +1772,10 @@
         <v>10005</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>2</v>

--- a/导表工具/Excels/战斗单位表.xlsx
+++ b/导表工具/Excels/战斗单位表.xlsx
@@ -134,19 +134,19 @@
     <t>剑客</t>
   </si>
   <si>
-    <t>剑修模版</t>
+    <t>剑修能力均衡。</t>
   </si>
   <si>
     <t>和尚</t>
   </si>
   <si>
-    <t>体修模版</t>
+    <t>体修攻击偏低，但是生命力强大。</t>
   </si>
   <si>
     <t>书生</t>
   </si>
   <si>
-    <t>灵修模版</t>
+    <t>灵修身板脆，但是攻击距离更远。</t>
   </si>
   <si>
     <t>DamageRate</t>
@@ -221,8 +221,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -247,6 +247,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -255,8 +269,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,83 +370,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -356,28 +378,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -399,61 +399,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +501,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,109 +573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,36 +611,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -676,6 +650,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -695,145 +695,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1187,14 +1187,14 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="2" max="2" width="14.7232142857143" customWidth="1"/>
     <col min="3" max="3" width="15.0178571428571" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="38.2321428571429" customWidth="1"/>
     <col min="5" max="5" width="12.3482142857143" customWidth="1"/>
     <col min="6" max="6" width="12.1964285714286" customWidth="1"/>
     <col min="10" max="10" width="22.9107142857143" customWidth="1"/>

--- a/导表工具/Excels/战斗单位表.xlsx
+++ b/导表工具/Excels/战斗单位表.xlsx
@@ -89,7 +89,7 @@
     <t>战斗单位编号</t>
   </si>
   <si>
-    <t>战斗单名字</t>
+    <t>战斗单位名字</t>
   </si>
   <si>
     <t>战斗单位简介</t>
@@ -221,8 +221,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -241,21 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +263,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -287,14 +287,45 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,16 +339,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,54 +376,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,19 +405,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,157 +561,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,15 +590,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -621,6 +612,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -631,6 +637,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,194 +690,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>

--- a/导表工具/Excels/战斗单位表.xlsx
+++ b/导表工具/Excels/战斗单位表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="战斗单位表" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>##</t>
   </si>
   <si>
-    <t>title_rows=4</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
     <t>SkillList</t>
   </si>
   <si>
+    <t>##type</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -59,13 +59,13 @@
     <t>list,int</t>
   </si>
   <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>描述</t>
+    <t>战斗单位编号</t>
+  </si>
+  <si>
+    <t>战斗单位名字</t>
+  </si>
+  <si>
+    <t>战斗单位简介</t>
   </si>
   <si>
     <t>最大生命值</t>
@@ -86,15 +86,6 @@
     <t>技能</t>
   </si>
   <si>
-    <t>战斗单位编号</t>
-  </si>
-  <si>
-    <t>战斗单位名字</t>
-  </si>
-  <si>
-    <t>战斗单位简介</t>
-  </si>
-  <si>
     <t>空白</t>
   </si>
   <si>
@@ -161,6 +152,15 @@
     <t>float</t>
   </si>
   <si>
+    <t>技能编号</t>
+  </si>
+  <si>
+    <t>技能名</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+  </si>
+  <si>
     <t>伤害倍率</t>
   </si>
   <si>
@@ -168,15 +168,6 @@
   </si>
   <si>
     <t>基础释放MP消耗</t>
-  </si>
-  <si>
-    <t>技能编号</t>
-  </si>
-  <si>
-    <t>技能名</t>
-  </si>
-  <si>
-    <t>技能描述</t>
   </si>
   <si>
     <t>空气炮</t>
@@ -241,7 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,6 +246,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -263,46 +337,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,60 +369,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,37 +390,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,145 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,8 +587,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,17 +641,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,26 +663,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,85 +686,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,7 +773,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,49 +785,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1200,194 +1191,236 @@
     <col min="10" max="10" width="22.9107142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="2:10">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="3">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="3">
+        <v>10002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="2:10">
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:10">
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:10">
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1</v>
+      <c r="J6" s="7">
+        <v>10002</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="3">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>4</v>
-      </c>
       <c r="J7" s="7">
-        <v>10001</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="3">
-        <v>10002</v>
+        <v>10004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
@@ -1396,171 +1429,113 @@
         <v>3</v>
       </c>
       <c r="J8" s="7">
-        <v>10002</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="3">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6</v>
+      </c>
+      <c r="J9" s="7">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10">
+        <v>20001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11">
+        <v>20002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="I9" s="3">
-        <v>3</v>
-      </c>
-      <c r="J9" s="7">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="3">
-        <v>10004</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3</v>
-      </c>
-      <c r="J10" s="7">
-        <v>10004</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="3">
-        <v>10005</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="3">
-        <v>6</v>
-      </c>
-      <c r="J11" s="7">
-        <v>10005</v>
+      <c r="I11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12">
-        <v>20001</v>
+        <v>20003</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13">
-        <v>20002</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14">
-        <v>20003</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
         <v>3</v>
       </c>
     </row>
@@ -1573,10 +1548,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A2:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1588,140 +1563,170 @@
     <col min="7" max="7" width="15.9196428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="2:7">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="2:7">
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:7">
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:4">
-      <c r="B5" s="1" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>10001</v>
+      </c>
+      <c r="C5" t="s">
         <v>53</v>
       </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6">
+        <v>10002</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6">
+        <v>1.3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>2</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8">
-        <v>10002</v>
+        <v>10004</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1729,61 +1734,21 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10">
-        <v>10004</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10">
-        <v>1.2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11">
-        <v>10005</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
         <v>3</v>
       </c>
     </row>

--- a/导表工具/Excels/战斗单位表.xlsx
+++ b/导表工具/Excels/战斗单位表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="战斗单位表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>##</t>
   </si>
@@ -179,31 +179,16 @@
     <t>重劈</t>
   </si>
   <si>
-    <t>吃我拜年剑法。</t>
-  </si>
-  <si>
     <t>曲射</t>
   </si>
   <si>
-    <t>八百里外把头射。</t>
-  </si>
-  <si>
     <t>火球术</t>
   </si>
   <si>
-    <t>不是用来生火做饭的。</t>
-  </si>
-  <si>
     <t>圣光惩戒</t>
   </si>
   <si>
-    <t>负责送你去见晨曦之神。</t>
-  </si>
-  <si>
     <t>冲锋</t>
-  </si>
-  <si>
-    <t>冲锋！</t>
   </si>
 </sst>
 </file>
@@ -211,10 +196,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -232,7 +217,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,22 +263,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,6 +284,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -284,9 +300,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,79 +353,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -390,31 +375,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +525,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,139 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,9 +571,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +585,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,37 +619,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,17 +649,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,148 +671,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1177,8 +1162,8 @@
   <sheetPr/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D5:J9 D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1550,8 +1535,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1659,9 +1644,7 @@
       <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
+      <c r="D5"/>
       <c r="E5">
         <v>1.5</v>
       </c>
@@ -1677,11 +1660,9 @@
         <v>10002</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D6"/>
       <c r="E6">
         <v>1.3</v>
       </c>
@@ -1697,11 +1678,9 @@
         <v>10003</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D7"/>
       <c r="E7">
         <v>1.8</v>
       </c>
@@ -1717,11 +1696,9 @@
         <v>10004</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D8"/>
       <c r="E8">
         <v>1.2</v>
       </c>
@@ -1737,11 +1714,9 @@
         <v>10005</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D9"/>
       <c r="E9">
         <v>2</v>
       </c>
